--- a/old_database/crypto/fastqFiles/fastq_3016.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_3016.xlsx
@@ -37,7 +37,7 @@
     <t>07.06.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3016</t>
   </si>
   <si>
     <t>sequence/run_3016_samples/3016_Brent_CNAG_00000_TCCGGGA_S42_R1_001.fastq.gz</t>
